--- a/output/fit_clients/fit_round_277.xlsx
+++ b/output/fit_clients/fit_round_277.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1669640836.789148</v>
+        <v>1618147278.111176</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1066679271203946</v>
+        <v>0.1108140034979734</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02918160178657367</v>
+        <v>0.03015111573307536</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>834820369.6154634</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2246201861.021726</v>
+        <v>1914219740.957657</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1320031812170542</v>
+        <v>0.1429487720375433</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04748309137614331</v>
+        <v>0.04063266508116072</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1123101008.699102</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3554329693.335529</v>
+        <v>4978460365.563811</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1177594951773111</v>
+        <v>0.1086859350972022</v>
       </c>
       <c r="G4" t="n">
-        <v>0.024493178867787</v>
+        <v>0.02932484254008505</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1777164829.27036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3953836523.560139</v>
+        <v>2993106751.753039</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08816809987751599</v>
+        <v>0.1098361434613586</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03515390837914103</v>
+        <v>0.04176709144561361</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>105</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1976918268.532459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2227610764.110374</v>
+        <v>1999115774.67724</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09967605020784698</v>
+        <v>0.1038731022684573</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05124908586053172</v>
+        <v>0.03892255775207015</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>51</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1113805387.01398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2087124364.947823</v>
+        <v>1988813231.928635</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06942418601855281</v>
+        <v>0.08604346430129228</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04036088395549369</v>
+        <v>0.04301173656779631</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>86</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1043562235.212013</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3432923023.412775</v>
+        <v>3857615393.742887</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1547791235634116</v>
+        <v>0.1946253714244865</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02668274504866885</v>
+        <v>0.03069726374166044</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>89</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1716461613.473564</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1959852674.111815</v>
+        <v>1934084813.637377</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1980157391486469</v>
+        <v>0.1488756302824394</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02926338213026355</v>
+        <v>0.02723205068236219</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>979926369.2390437</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5649294117.154034</v>
+        <v>5330301734.364182</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2064647741999941</v>
+        <v>0.1608386794198795</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04624828380845546</v>
+        <v>0.03625964698334269</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>117</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2824647208.137431</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3821730464.512224</v>
+        <v>3927896739.486236</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1809506686415326</v>
+        <v>0.1397978810316058</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0386890412854165</v>
+        <v>0.03933817122739601</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>115</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1910865232.470749</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2811888390.800335</v>
+        <v>2389848883.23944</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1370212841107118</v>
+        <v>0.1638973144499709</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04580142555155592</v>
+        <v>0.03722311263459745</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>95</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1405944196.163593</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3390970365.327841</v>
+        <v>3838112443.044016</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06770997516685584</v>
+        <v>0.07301265527490639</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02336197746119577</v>
+        <v>0.02554775558925689</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>93</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1695485268.525727</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2710867844.027962</v>
+        <v>2575531479.226692</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1170630484352791</v>
+        <v>0.1368900674371744</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04265227055973325</v>
+        <v>0.03758197134338151</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1355433977.387931</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1396476322.642555</v>
+        <v>1705163515.234693</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1047625948030715</v>
+        <v>0.1037582949851737</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04094608325347233</v>
+        <v>0.04391930704747155</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>698238223.3469126</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2843144686.004597</v>
+        <v>2593641857.580967</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08989445794838931</v>
+        <v>0.1033337857906497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03866932314791538</v>
+        <v>0.04038335454419508</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>52</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1421572343.156571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3513073355.677861</v>
+        <v>5258934373.164083</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1603848967293915</v>
+        <v>0.1434930700984996</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04436872240526593</v>
+        <v>0.04367975265676993</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>81</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1756536736.455834</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2483829552.669425</v>
+        <v>2436551359.761026</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1476441181111645</v>
+        <v>0.1789195818489196</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02156414397358179</v>
+        <v>0.02907046954027828</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>91</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1241914843.965657</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1158926334.970335</v>
+        <v>867439917.206488</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1772818866684026</v>
+        <v>0.1237078523034798</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02136392932316074</v>
+        <v>0.0203308374317606</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>579463235.4355249</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1731042452.665809</v>
+        <v>1695615640.905325</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1375629425862414</v>
+        <v>0.1615075662179996</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02490249885681888</v>
+        <v>0.03047001165594394</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>865521281.3079206</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2047993100.115784</v>
+        <v>2129456838.360248</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08502714453095961</v>
+        <v>0.08214540255250696</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0369901862376717</v>
+        <v>0.043655117019241</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>22</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1023996581.437803</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3378639065.420859</v>
+        <v>2548512504.194777</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1247374205310328</v>
+        <v>0.1237706233555467</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04638198459309033</v>
+        <v>0.05378630223901131</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>78</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1689319571.56703</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1089126815.070902</v>
+        <v>1168084411.288083</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1382108112422257</v>
+        <v>0.1421646150652503</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05150353937231463</v>
+        <v>0.05423532848345552</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>544563462.7017092</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3979217311.289609</v>
+        <v>2739225594.109304</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1332561208798614</v>
+        <v>0.1231090935408599</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02416679090231352</v>
+        <v>0.02695842836786415</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>81</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1989608625.035241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1169921221.957597</v>
+        <v>1388096224.272209</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09635294177301243</v>
+        <v>0.1001860011890778</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02513533485013112</v>
+        <v>0.01922051771418932</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>584960635.8629743</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1278779416.147328</v>
+        <v>1274099131.544225</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09881435907630617</v>
+        <v>0.105839285528488</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03329881698145376</v>
+        <v>0.03021674328714144</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>639389748.4367746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4332119186.511631</v>
+        <v>3490097411.524902</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1341675335730651</v>
+        <v>0.152358799152927</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02152014529255951</v>
+        <v>0.02307571116678917</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2166059586.894924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2806742239.842542</v>
+        <v>2848264015.924839</v>
       </c>
       <c r="F28" t="n">
-        <v>0.151676236576815</v>
+        <v>0.1424823536736633</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03070929770556799</v>
+        <v>0.03269109807829879</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>90</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1403371114.358704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4234257253.406608</v>
+        <v>4904142420.968616</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1000624404668154</v>
+        <v>0.1165301197114477</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02822568401312511</v>
+        <v>0.04116016765190107</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>123</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2117128627.301584</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1811923319.303988</v>
+        <v>1738068311.145504</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1361417233176995</v>
+        <v>0.1352646854755025</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03226013588802183</v>
+        <v>0.04015138483802879</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>905961675.6892979</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1328522380.061892</v>
+        <v>1022075124.809352</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08028657599226334</v>
+        <v>0.06813850784989221</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04703672475520242</v>
+        <v>0.0387368450593238</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>664261111.2392365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1563250825.414642</v>
+        <v>1188560383.77587</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08161299856379253</v>
+        <v>0.1066276376957038</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03415722107025524</v>
+        <v>0.03572130303270191</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>781625494.1643032</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2997660296.436591</v>
+        <v>2220411315.749255</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1331199742504635</v>
+        <v>0.1946163814468093</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03919431191112279</v>
+        <v>0.04579487550324974</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>85</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1498830144.029387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1044889232.131836</v>
+        <v>1547955444.982077</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09347658980155227</v>
+        <v>0.07520086297949143</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01928019665529555</v>
+        <v>0.01852320886560912</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>522444646.5386793</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>948359207.0565801</v>
+        <v>1215889678.62615</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07161848983100459</v>
+        <v>0.09917016593469408</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04156731446639417</v>
+        <v>0.04209997898365983</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>474179633.441999</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2850201469.356452</v>
+        <v>2427989195.748072</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1262702215479652</v>
+        <v>0.112758370487832</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02147212784652632</v>
+        <v>0.02737989712475788</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>70</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1425100728.605102</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1872859236.050342</v>
+        <v>1825025918.813962</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1079714662758275</v>
+        <v>0.1046501194002045</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02889252294574044</v>
+        <v>0.03014936885987074</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>73</v>
-      </c>
-      <c r="J37" t="n">
-        <v>936429627.8064556</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1752354796.720866</v>
+        <v>2135740922.184993</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08888415167636332</v>
+        <v>0.1179105528552728</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03527248336714401</v>
+        <v>0.02901259417610744</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>876177411.9707439</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1614533958.558331</v>
+        <v>1834257593.088482</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1844870616742412</v>
+        <v>0.181265878897797</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02888021462123475</v>
+        <v>0.03110745872338877</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>807267032.3332055</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1694032437.567869</v>
+        <v>1291336194.473559</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1288468473645959</v>
+        <v>0.1119213182618171</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04687371751860205</v>
+        <v>0.048178486523609</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>847016136.3898414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2652347031.097843</v>
+        <v>2195166376.28032</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1300327363004795</v>
+        <v>0.1271066043854522</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03152135078832643</v>
+        <v>0.04245929680092538</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>68</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1326173525.876222</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4032380498.19926</v>
+        <v>3583120129.737988</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1028523608275251</v>
+        <v>0.09727050147848249</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02838869585188352</v>
+        <v>0.02945829495653032</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2016190280.601917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2920829413.380976</v>
+        <v>2652953104.926724</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1625641730655748</v>
+        <v>0.1254540173468333</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02373776350379929</v>
+        <v>0.02036799828418592</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>100</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1460414713.033858</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1641520134.831787</v>
+        <v>2202804653.707734</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07156495222953325</v>
+        <v>0.08113880448713917</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03384965741407309</v>
+        <v>0.03230454689782544</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>820760102.228186</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2360534083.647975</v>
+        <v>2284736917.550405</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1281250278868865</v>
+        <v>0.1538230201222085</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05128534053109993</v>
+        <v>0.05073449856270289</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1180267069.00318</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3869749419.780265</v>
+        <v>4611321210.060689</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1156574738435565</v>
+        <v>0.1474383349328517</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04536815001570772</v>
+        <v>0.04373310748943562</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>99</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1934874671.960967</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4928230664.06975</v>
+        <v>4690557974.239631</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1991027869233224</v>
+        <v>0.1352707729813357</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05663838010672767</v>
+        <v>0.05722408966814541</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>74</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2464115383.800312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2855545288.437939</v>
+        <v>4031799480.00354</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07617438094674983</v>
+        <v>0.07983154242865272</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03149469494078447</v>
+        <v>0.03553493632702997</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1427772745.13266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1561887647.895258</v>
+        <v>1328068710.382693</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1324930496061256</v>
+        <v>0.1436015798507802</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04265253617996528</v>
+        <v>0.03867087183291264</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>780943846.3370092</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2980051058.758445</v>
+        <v>2694072976.304862</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1190603221076994</v>
+        <v>0.1432314743775825</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05111000212193651</v>
+        <v>0.04545616825460812</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>94</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1490025590.627801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1363776842.438253</v>
+        <v>1412287000.740833</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1638157636150585</v>
+        <v>0.1743199731166061</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04809578368752945</v>
+        <v>0.05254822271259724</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>681888446.2329299</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4174833654.69232</v>
+        <v>4559501118.486128</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1157444226603821</v>
+        <v>0.1274094212048423</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03761840287725137</v>
+        <v>0.06101414941672039</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>114</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2087416873.531041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2964944760.694486</v>
+        <v>3544738941.564678</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1635496111657758</v>
+        <v>0.1386374061468677</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03009849946131367</v>
+        <v>0.02704143606713396</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>81</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1482472415.227899</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4742866021.368039</v>
+        <v>4409020203.946678</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1208005289593963</v>
+        <v>0.1409279831007432</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05110302535083804</v>
+        <v>0.04580559693084049</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>91</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2371433133.104007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3634229934.687265</v>
+        <v>3282692393.530045</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1631867269093519</v>
+        <v>0.1735153902539657</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02815267566291839</v>
+        <v>0.0310313222107178</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1817114926.096577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1392885934.918137</v>
+        <v>1327954809.388673</v>
       </c>
       <c r="F56" t="n">
-        <v>0.132667751750335</v>
+        <v>0.1137972815618248</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04562686946201821</v>
+        <v>0.05344603206907673</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>696443025.5566822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3016581400.777381</v>
+        <v>2836940900.918818</v>
       </c>
       <c r="F57" t="n">
-        <v>0.180899578931454</v>
+        <v>0.1395460598118979</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02385776638533435</v>
+        <v>0.0192607827014527</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>88</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1508290706.184096</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1790593165.411061</v>
+        <v>1641735228.304209</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1869112401917237</v>
+        <v>0.1960706510870286</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02962255985615202</v>
+        <v>0.03950601033983957</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>895296587.3218395</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4797764394.766546</v>
+        <v>3915943225.860042</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1280458343402445</v>
+        <v>0.119007210856456</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0362104764694425</v>
+        <v>0.03946628737994074</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2398882134.831746</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3636209411.763653</v>
+        <v>2849433272.50978</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2028866017152921</v>
+        <v>0.1638604417287348</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03206255858723522</v>
+        <v>0.02872666208775933</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>86</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1818104842.966163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2133961635.54934</v>
+        <v>2252360538.096235</v>
       </c>
       <c r="F61" t="n">
-        <v>0.162661227663925</v>
+        <v>0.1513312986779949</v>
       </c>
       <c r="G61" t="n">
-        <v>0.025186949798851</v>
+        <v>0.02610576703770333</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>95</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1066980879.910095</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1349623217.336955</v>
+        <v>2026376269.404106</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1721989915598697</v>
+        <v>0.1181490180999474</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03411021718038765</v>
+        <v>0.03901577311003785</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>674811569.1317626</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3375769504.664296</v>
+        <v>4285804529.48736</v>
       </c>
       <c r="F63" t="n">
-        <v>0.101547895254257</v>
+        <v>0.07640162594614436</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03426961114470458</v>
+        <v>0.04377981083768901</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>79</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1687884842.586257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3983238790.554186</v>
+        <v>3426322978.371339</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1426466758232061</v>
+        <v>0.1508118086229921</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03365992748638486</v>
+        <v>0.02834789473769471</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>86</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1991619429.960348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5590110239.020465</v>
+        <v>5028194032.699496</v>
       </c>
       <c r="F65" t="n">
-        <v>0.157978207339367</v>
+        <v>0.1259242168904071</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02419387137622811</v>
+        <v>0.02025944840669942</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>101</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2795055043.210544</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4158730655.031551</v>
+        <v>5033926445.457625</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1178744732828858</v>
+        <v>0.09938415307850759</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04502277940651701</v>
+        <v>0.04840860192776487</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>81</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2079365309.63558</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2200151390.114464</v>
+        <v>2731433809.329912</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08413337404492632</v>
+        <v>0.06505694397923338</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03734190010444383</v>
+        <v>0.03613329254007096</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>88</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1100075781.039588</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5317014988.530336</v>
+        <v>4810507150.751707</v>
       </c>
       <c r="F68" t="n">
-        <v>0.157795558216009</v>
+        <v>0.1596218605238504</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03286212670305776</v>
+        <v>0.04872337320693881</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>88</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2658507569.858521</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1835135506.94325</v>
+        <v>2489543702.746863</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1299573687793478</v>
+        <v>0.1192004161235237</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04892097070357652</v>
+        <v>0.03905703290278221</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>917567737.1080854</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3691195767.826479</v>
+        <v>2686504320.96255</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06659159859512391</v>
+        <v>0.06849010609584393</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03655203452688369</v>
+        <v>0.03089231597963808</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>79</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1845597905.89323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3602012061.817323</v>
+        <v>4828631466.821887</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1859945549197977</v>
+        <v>0.138830309258793</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03240352930451865</v>
+        <v>0.02110864265128903</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>101</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1801006032.22011</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2153282000.608923</v>
+        <v>1798319006.323513</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06838450730230135</v>
+        <v>0.07116598730650908</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03965306639520322</v>
+        <v>0.03433373805811808</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1076640921.934565</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2166823461.388897</v>
+        <v>2734829474.783863</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07959413789891349</v>
+        <v>0.09371898733690311</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04646764307191803</v>
+        <v>0.04289230052516826</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>105</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1083411802.980468</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3728412781.896779</v>
+        <v>3821408858.241225</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1460803729628412</v>
+        <v>0.1701855444031815</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03503583344109818</v>
+        <v>0.02783968143043488</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>94</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1864206393.337421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1814414150.340266</v>
+        <v>1898503220.977827</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1255992522375775</v>
+        <v>0.1218284524492835</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02413445312253991</v>
+        <v>0.03148587933114746</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>907207056.8121504</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4035661429.868304</v>
+        <v>3801757100.433015</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08254795765111221</v>
+        <v>0.09626051134627493</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02345597133657144</v>
+        <v>0.02103059854686227</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2017830701.144206</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2211443988.219351</v>
+        <v>1408969426.21659</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1546230404845239</v>
+        <v>0.1503089156477507</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02513297739627476</v>
+        <v>0.03052343721817399</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1105722086.889372</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3125640274.95765</v>
+        <v>3146938475.234517</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1334405676232406</v>
+        <v>0.121437214019795</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03835643660217226</v>
+        <v>0.05666620147737465</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>96</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1562820165.786389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1418634654.262865</v>
+        <v>1306913400.876254</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1511702240216993</v>
+        <v>0.1145639441303789</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02805685229538201</v>
+        <v>0.02965499797835131</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>709317347.1167188</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4967574728.729699</v>
+        <v>4375581721.72069</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1012209020302671</v>
+        <v>0.1063899719640274</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03473204867124376</v>
+        <v>0.02935472011561</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>58</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2483787411.94809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3297422214.155341</v>
+        <v>4815002794.722914</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1183985386605083</v>
+        <v>0.1286767693130629</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03072855999686688</v>
+        <v>0.02959857487623392</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1648711044.18329</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5321622668.354269</v>
+        <v>4126199673.393725</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2008983877197812</v>
+        <v>0.1751409165020729</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02045660813237084</v>
+        <v>0.02599985097072783</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>99</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2660811300.172256</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2164744607.107813</v>
+        <v>1985645635.129848</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1249463653486885</v>
+        <v>0.1064340609689064</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03290468949468568</v>
+        <v>0.03404107169658133</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1082372309.399026</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2335423575.851639</v>
+        <v>1878395581.822056</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07840662610046777</v>
+        <v>0.1160579934809464</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04278262280520053</v>
+        <v>0.03426420514164516</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1167711743.815415</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3250855698.714622</v>
+        <v>2663865599.97508</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1385896622506345</v>
+        <v>0.1795679298729739</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05126849938481592</v>
+        <v>0.04739812835517251</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>105</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1625427937.191342</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2149651313.559448</v>
+        <v>2762647620.842892</v>
       </c>
       <c r="F86" t="n">
-        <v>0.126665551455497</v>
+        <v>0.1257580818927844</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0224559948898433</v>
+        <v>0.02174103293556651</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1074825705.219999</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1426374436.185058</v>
+        <v>1051365984.73962</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1569148369484679</v>
+        <v>0.125809472292742</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03717249965301404</v>
+        <v>0.03278363897185886</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>713187331.6899294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3307645170.692882</v>
+        <v>2904386021.091943</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1692568118723884</v>
+        <v>0.1281164801835806</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02624869761786749</v>
+        <v>0.03678126208778971</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>109</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1653822646.194904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3439790934.520959</v>
+        <v>3363032160.359803</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1150064892033499</v>
+        <v>0.1222574921663358</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04149055008025238</v>
+        <v>0.04053440852349226</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>94</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1719895473.143357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1780465062.312611</v>
+        <v>1866254638.574118</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1026770696943987</v>
+        <v>0.1185273323200493</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05384641277198179</v>
+        <v>0.03610205709490139</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>890232561.1895368</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1399948994.786973</v>
+        <v>1949919222.296487</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1857720595767453</v>
+        <v>0.1463524010245861</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05150625891515645</v>
+        <v>0.06199213485953974</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>699974549.6379462</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1862256602.079015</v>
+        <v>2579120830.860472</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07832953801245564</v>
+        <v>0.0772671870820964</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03510353075687717</v>
+        <v>0.03475190072175716</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>70</v>
-      </c>
-      <c r="J92" t="n">
-        <v>931128236.7918819</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3305070192.325532</v>
+        <v>4381544116.283607</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1102383445784606</v>
+        <v>0.09178994074188157</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04011928876856634</v>
+        <v>0.05311579802954783</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>82</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1652535141.694421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1684237509.487802</v>
+        <v>1639487053.352853</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1588489308184461</v>
+        <v>0.1649002979480531</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02802932296280966</v>
+        <v>0.02960459501981244</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>842118711.9994957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3122565738.277508</v>
+        <v>2441744814.678319</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09331773509910199</v>
+        <v>0.1354279695838783</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04438255224590548</v>
+        <v>0.03603288869433574</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>68</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1561282859.981979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1967416789.54828</v>
+        <v>2189705694.090448</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1238097657070667</v>
+        <v>0.09123441053552074</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03855005285242827</v>
+        <v>0.04049024989374869</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>983708385.221482</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3316499689.593833</v>
+        <v>3274520823.294818</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1322135678884386</v>
+        <v>0.1316026397980882</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01767065909379911</v>
+        <v>0.02281796314008834</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>89</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1658249846.20443</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3064313875.419132</v>
+        <v>3745997251.797957</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0950103746956593</v>
+        <v>0.1142288808610168</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02089549800071346</v>
+        <v>0.01977139549183068</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1532156926.754474</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2521105517.610065</v>
+        <v>2642695948.486065</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09534369334056877</v>
+        <v>0.1056609020171742</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02442267911878453</v>
+        <v>0.03495543295749105</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>87</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1260552710.063287</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3312587436.236466</v>
+        <v>3111738423.552624</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1590383082043236</v>
+        <v>0.1160642939414053</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02755832028114195</v>
+        <v>0.01898656908341096</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1656293733.91872</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2708950472.142028</v>
+        <v>2457172722.59147</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1702187088991516</v>
+        <v>0.1903019146031177</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05749015801227479</v>
+        <v>0.04888108560886738</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>110</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1354475286.667761</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_277.xlsx
+++ b/output/fit_clients/fit_round_277.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1618147278.111176</v>
+        <v>2199899485.991301</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1108140034979734</v>
+        <v>0.08310778186650378</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03015111573307536</v>
+        <v>0.04339664526637289</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1914219740.957657</v>
+        <v>1614584105.374541</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1429487720375433</v>
+        <v>0.1824460919813283</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04063266508116072</v>
+        <v>0.04637593838381779</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4978460365.563811</v>
+        <v>4989242726.013649</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1086859350972022</v>
+        <v>0.1401845922045536</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02932484254008505</v>
+        <v>0.03178543768439161</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2993106751.753039</v>
+        <v>2572663440.161647</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1098361434613586</v>
+        <v>0.0851182252733645</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04176709144561361</v>
+        <v>0.03691320308467002</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1999115774.67724</v>
+        <v>2834946553.252284</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1038731022684573</v>
+        <v>0.1227975979263607</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03892255775207015</v>
+        <v>0.05566590551148834</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1988813231.928635</v>
+        <v>2726840511.750465</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08604346430129228</v>
+        <v>0.0805807905805119</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04301173656779631</v>
+        <v>0.04172921069060226</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3857615393.742887</v>
+        <v>3312962647.428835</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1946253714244865</v>
+        <v>0.2170689500835107</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03069726374166044</v>
+        <v>0.02265244349079595</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1934084813.637377</v>
+        <v>2233582408.694578</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1488756302824394</v>
+        <v>0.1890649396927011</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02723205068236219</v>
+        <v>0.03306710070696981</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5330301734.364182</v>
+        <v>3933729215.667498</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1608386794198795</v>
+        <v>0.161775948546636</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03625964698334269</v>
+        <v>0.03708434949232468</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3927896739.486236</v>
+        <v>4211331124.501798</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1397978810316058</v>
+        <v>0.1859134130316815</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03933817122739601</v>
+        <v>0.04252863365624746</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2389848883.23944</v>
+        <v>2971718361.260784</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1638973144499709</v>
+        <v>0.1647852676620333</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03722311263459745</v>
+        <v>0.05083497837958189</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3838112443.044016</v>
+        <v>5296480558.676425</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07301265527490639</v>
+        <v>0.08489109799206328</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02554775558925689</v>
+        <v>0.02721061839305134</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2575531479.226692</v>
+        <v>2448205283.10265</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1368900674371744</v>
+        <v>0.130630811397593</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03758197134338151</v>
+        <v>0.02907928751753003</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1705163515.234693</v>
+        <v>1763049856.607802</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1037582949851737</v>
+        <v>0.07281029455669794</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04391930704747155</v>
+        <v>0.03920227333634189</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2593641857.580967</v>
+        <v>2526922412.584442</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1033337857906497</v>
+        <v>0.0943655299231113</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04038335454419508</v>
+        <v>0.04237428317179524</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5258934373.164083</v>
+        <v>3571336760.636095</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1434930700984996</v>
+        <v>0.1067615869194236</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04367975265676993</v>
+        <v>0.04067072884050733</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2436551359.761026</v>
+        <v>3335032602.379986</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1789195818489196</v>
+        <v>0.1339085770674761</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02907046954027828</v>
+        <v>0.02093210145783174</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>867439917.206488</v>
+        <v>1085538476.073735</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1237078523034798</v>
+        <v>0.1622764513046358</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0203308374317606</v>
+        <v>0.0166471325018756</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1695615640.905325</v>
+        <v>2712471324.765316</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1615075662179996</v>
+        <v>0.1105019856949395</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03047001165594394</v>
+        <v>0.02464406161709595</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2129456838.360248</v>
+        <v>2578698037.875627</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08214540255250696</v>
+        <v>0.06669007610559936</v>
       </c>
       <c r="G21" t="n">
-        <v>0.043655117019241</v>
+        <v>0.0357905558794431</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2548512504.194777</v>
+        <v>3142823301.529985</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1237706233555467</v>
+        <v>0.1041896293981096</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05378630223901131</v>
+        <v>0.03811860228851613</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1168084411.288083</v>
+        <v>1477611705.616367</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1421646150652503</v>
+        <v>0.148731501585902</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05423532848345552</v>
+        <v>0.05434666293396401</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2739225594.109304</v>
+        <v>2529625124.850218</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1231090935408599</v>
+        <v>0.1090971867883917</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02695842836786415</v>
+        <v>0.02504742653101907</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1388096224.272209</v>
+        <v>1396169081.798088</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1001860011890778</v>
+        <v>0.0916785425465356</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01922051771418932</v>
+        <v>0.02315641617680585</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1274099131.544225</v>
+        <v>1360769237.986578</v>
       </c>
       <c r="F26" t="n">
-        <v>0.105839285528488</v>
+        <v>0.1150632985286692</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03021674328714144</v>
+        <v>0.02950852818084535</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3490097411.524902</v>
+        <v>3793383940.61768</v>
       </c>
       <c r="F27" t="n">
-        <v>0.152358799152927</v>
+        <v>0.1170410511485677</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02307571116678917</v>
+        <v>0.01818659425324191</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2848264015.924839</v>
+        <v>2458745518.495383</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1424823536736633</v>
+        <v>0.1292121966026056</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03269109807829879</v>
+        <v>0.0492487637724497</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4904142420.968616</v>
+        <v>5157957579.599565</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1165301197114477</v>
+        <v>0.1507161997082575</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04116016765190107</v>
+        <v>0.0418381031369222</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1738068311.145504</v>
+        <v>1513673096.732883</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1352646854755025</v>
+        <v>0.1318412878119767</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04015138483802879</v>
+        <v>0.03253069341607127</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1022075124.809352</v>
+        <v>1359300945.61253</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06813850784989221</v>
+        <v>0.07651804157951377</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0387368450593238</v>
+        <v>0.0517537928706353</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1188560383.77587</v>
+        <v>1900412013.972793</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1066276376957038</v>
+        <v>0.08010476636095341</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03572130303270191</v>
+        <v>0.03311941063364915</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2220411315.749255</v>
+        <v>2346196326.925837</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1946163814468093</v>
+        <v>0.1958644842198273</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04579487550324974</v>
+        <v>0.04676545934381216</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1547955444.982077</v>
+        <v>985230160.6924146</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07520086297949143</v>
+        <v>0.1135535351279158</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01852320886560912</v>
+        <v>0.02098393030434368</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1215889678.62615</v>
+        <v>1056180002.832343</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09917016593469408</v>
+        <v>0.1091987742607002</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04209997898365983</v>
+        <v>0.03450108409611524</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2427989195.748072</v>
+        <v>2364536402.287262</v>
       </c>
       <c r="F36" t="n">
-        <v>0.112758370487832</v>
+        <v>0.1475418496886547</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02737989712475788</v>
+        <v>0.02844360707687398</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1825025918.813962</v>
+        <v>1850884962.171818</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1046501194002045</v>
+        <v>0.09145608383301321</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03014936885987074</v>
+        <v>0.03088369155122695</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2135740922.184993</v>
+        <v>1956623147.726893</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1179105528552728</v>
+        <v>0.1034310009573441</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02901259417610744</v>
+        <v>0.02979991742636346</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1834257593.088482</v>
+        <v>1590621722.946442</v>
       </c>
       <c r="F39" t="n">
-        <v>0.181265878897797</v>
+        <v>0.1886173760071484</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03110745872338877</v>
+        <v>0.02114957332216417</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1291336194.473559</v>
+        <v>1433104805.776782</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1119213182618171</v>
+        <v>0.1425842942811154</v>
       </c>
       <c r="G40" t="n">
-        <v>0.048178486523609</v>
+        <v>0.04719109289805194</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2195166376.28032</v>
+        <v>1977846329.403185</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1271066043854522</v>
+        <v>0.147732350383056</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04245929680092538</v>
+        <v>0.03117938004496649</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3583120129.737988</v>
+        <v>3823406556.736289</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09727050147848249</v>
+        <v>0.0855899487717003</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02945829495653032</v>
+        <v>0.04554093095343032</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2652953104.926724</v>
+        <v>2414836741.785233</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1254540173468333</v>
+        <v>0.1571883490146303</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02036799828418592</v>
+        <v>0.01810237426953176</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2202804653.707734</v>
+        <v>2252940156.981549</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08113880448713917</v>
+        <v>0.09022178058811858</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03230454689782544</v>
+        <v>0.0291287895481521</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2284736917.550405</v>
+        <v>1566259946.988925</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1538230201222085</v>
+        <v>0.1178887915260939</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05073449856270289</v>
+        <v>0.03888028930950964</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4611321210.060689</v>
+        <v>5002775907.210521</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1474383349328517</v>
+        <v>0.1461180915345048</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04373310748943562</v>
+        <v>0.03704227611699498</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4690557974.239631</v>
+        <v>4324120250.265481</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1352707729813357</v>
+        <v>0.1593227805422067</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05722408966814541</v>
+        <v>0.05442710037427876</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4031799480.00354</v>
+        <v>3463797240.730597</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07983154242865272</v>
+        <v>0.06807730888300796</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03553493632702997</v>
+        <v>0.03439313421579304</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1328068710.382693</v>
+        <v>1602208222.660462</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1436015798507802</v>
+        <v>0.180333581759773</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03867087183291264</v>
+        <v>0.03956896678601725</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2694072976.304862</v>
+        <v>3715176367.107996</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1432314743775825</v>
+        <v>0.1427538952974008</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04545616825460812</v>
+        <v>0.04750119336824445</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1412287000.740833</v>
+        <v>1516712251.467672</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1743199731166061</v>
+        <v>0.1695210841497947</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05254822271259724</v>
+        <v>0.03517825596008749</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4559501118.486128</v>
+        <v>5145904183.656276</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1274094212048423</v>
+        <v>0.08452961022956351</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06101414941672039</v>
+        <v>0.04188036286414421</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3544738941.564678</v>
+        <v>3471836546.902253</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1386374061468677</v>
+        <v>0.1329173401241182</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02704143606713396</v>
+        <v>0.02816466052681459</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4409020203.946678</v>
+        <v>4366655622.42637</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1409279831007432</v>
+        <v>0.1145707044389083</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04580559693084049</v>
+        <v>0.03613802454687233</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3282692393.530045</v>
+        <v>4347482755.456096</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1735153902539657</v>
+        <v>0.1653823389621292</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0310313222107178</v>
+        <v>0.03258132406689267</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1327954809.388673</v>
+        <v>1722754034.818159</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1137972815618248</v>
+        <v>0.1609176330174389</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05344603206907673</v>
+        <v>0.04363498489146019</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2836940900.918818</v>
+        <v>3875724507.366602</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1395460598118979</v>
+        <v>0.1176512601014691</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0192607827014527</v>
+        <v>0.02653931159322689</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1641735228.304209</v>
+        <v>1369537055.143045</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1960706510870286</v>
+        <v>0.1536522938966858</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03950601033983957</v>
+        <v>0.02725727958956323</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3915943225.860042</v>
+        <v>4536008351.277634</v>
       </c>
       <c r="F59" t="n">
-        <v>0.119007210856456</v>
+        <v>0.08238438032769906</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03946628737994074</v>
+        <v>0.04489414353052876</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2849433272.50978</v>
+        <v>3021482895.59432</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1638604417287348</v>
+        <v>0.1780362904802306</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02872666208775933</v>
+        <v>0.02254814523868042</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2252360538.096235</v>
+        <v>2401446168.683288</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1513312986779949</v>
+        <v>0.125720510451148</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02610576703770333</v>
+        <v>0.02664493827284342</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2026376269.404106</v>
+        <v>1832410195.378221</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1181490180999474</v>
+        <v>0.1467710264866518</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03901577311003785</v>
+        <v>0.04748251486280433</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4285804529.48736</v>
+        <v>5528822937.602718</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07640162594614436</v>
+        <v>0.1010913480655332</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04377981083768901</v>
+        <v>0.02957328707329189</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3426322978.371339</v>
+        <v>5520941119.976525</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1508118086229921</v>
+        <v>0.1849548611453982</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02834789473769471</v>
+        <v>0.02530286746555954</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5028194032.699496</v>
+        <v>3797068284.913234</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1259242168904071</v>
+        <v>0.1479772392717367</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02025944840669942</v>
+        <v>0.02314656369150857</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5033926445.457625</v>
+        <v>4979127789.196584</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09938415307850759</v>
+        <v>0.1099457314299893</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04840860192776487</v>
+        <v>0.03136251239531475</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2731433809.329912</v>
+        <v>2750263841.62685</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06505694397923338</v>
+        <v>0.07380693480174447</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03613329254007096</v>
+        <v>0.03908605865024893</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4810507150.751707</v>
+        <v>5376019526.390667</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1596218605238504</v>
+        <v>0.1197587381435697</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04872337320693881</v>
+        <v>0.031820117034317</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2489543702.746863</v>
+        <v>1524250583.288967</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1192004161235237</v>
+        <v>0.1172027094415656</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03905703290278221</v>
+        <v>0.03956342819245819</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2686504320.96255</v>
+        <v>3266270872.764679</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06849010609584393</v>
+        <v>0.06487334795731077</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03089231597963808</v>
+        <v>0.04282929419384172</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4828631466.821887</v>
+        <v>3675217902.040329</v>
       </c>
       <c r="F71" t="n">
-        <v>0.138830309258793</v>
+        <v>0.1737589506079584</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02110864265128903</v>
+        <v>0.03046752309528343</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1798319006.323513</v>
+        <v>1744007298.312246</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07116598730650908</v>
+        <v>0.0677073640830001</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03433373805811808</v>
+        <v>0.0379195101928083</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2734829474.783863</v>
+        <v>2389780862.033905</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09371898733690311</v>
+        <v>0.08871360817071482</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04289230052516826</v>
+        <v>0.04083070077341446</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3821408858.241225</v>
+        <v>2965087986.124836</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1701855444031815</v>
+        <v>0.1424050551408835</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02783968143043488</v>
+        <v>0.0304719953691427</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1898503220.977827</v>
+        <v>1964849155.225432</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1218284524492835</v>
+        <v>0.1421223668715735</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03148587933114746</v>
+        <v>0.0370565876562508</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3801757100.433015</v>
+        <v>3261063978.949977</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09626051134627493</v>
+        <v>0.08614962276327193</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02103059854686227</v>
+        <v>0.03033942827221128</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1408969426.21659</v>
+        <v>2191512528.156042</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1503089156477507</v>
+        <v>0.1560355972234866</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03052343721817399</v>
+        <v>0.02760889103532887</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3146938475.234517</v>
+        <v>3126044798.851005</v>
       </c>
       <c r="F78" t="n">
-        <v>0.121437214019795</v>
+        <v>0.1007336801309323</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05666620147737465</v>
+        <v>0.04675570646734535</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1306913400.876254</v>
+        <v>1545007597.234261</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1145639441303789</v>
+        <v>0.1269716870290527</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02965499797835131</v>
+        <v>0.03436489848673164</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4375581721.72069</v>
+        <v>3793165248.040316</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1063899719640274</v>
+        <v>0.08989502684856182</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02935472011561</v>
+        <v>0.02388192987744113</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4815002794.722914</v>
+        <v>3572618492.125958</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1286767693130629</v>
+        <v>0.093121679571571</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02959857487623392</v>
+        <v>0.031689538036601</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4126199673.393725</v>
+        <v>3875272967.028067</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1751409165020729</v>
+        <v>0.1982512266654786</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02599985097072783</v>
+        <v>0.02117968311509269</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1985645635.129848</v>
+        <v>2246718538.264296</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1064340609689064</v>
+        <v>0.1530791002567084</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03404107169658133</v>
+        <v>0.0450369035704239</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1878395581.822056</v>
+        <v>2263811401.953587</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1160579934809464</v>
+        <v>0.1177532921060607</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03426420514164516</v>
+        <v>0.0440934797266524</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2663865599.97508</v>
+        <v>3542719423.873509</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1795679298729739</v>
+        <v>0.1160122922873753</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04739812835517251</v>
+        <v>0.03588413595853237</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2762647620.842892</v>
+        <v>1920735557.867024</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1257580818927844</v>
+        <v>0.1046781493651163</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02174103293556651</v>
+        <v>0.01929972976490245</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1051365984.73962</v>
+        <v>1062287750.314206</v>
       </c>
       <c r="F87" t="n">
-        <v>0.125809472292742</v>
+        <v>0.1842004503407181</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03278363897185886</v>
+        <v>0.02719898915797075</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2904386021.091943</v>
+        <v>3561331562.548227</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1281164801835806</v>
+        <v>0.14022832239351</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03678126208778971</v>
+        <v>0.03486150906517071</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3363032160.359803</v>
+        <v>2203842679.16048</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1222574921663358</v>
+        <v>0.1554791935345499</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04053440852349226</v>
+        <v>0.02615287789738782</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1866254638.574118</v>
+        <v>1835721089.471642</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1185273323200493</v>
+        <v>0.1059125027500575</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03610205709490139</v>
+        <v>0.03840152130376705</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1949919222.296487</v>
+        <v>2053642195.612321</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1463524010245861</v>
+        <v>0.1593639825595329</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06199213485953974</v>
+        <v>0.04841243722865522</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2579120830.860472</v>
+        <v>2171974924.183102</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0772671870820964</v>
+        <v>0.08453688190544018</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03475190072175716</v>
+        <v>0.04359091495489557</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4381544116.283607</v>
+        <v>4163191055.771222</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09178994074188157</v>
+        <v>0.1378812390121511</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05311579802954783</v>
+        <v>0.04403899958969536</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1639487053.352853</v>
+        <v>1754225857.150638</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1649002979480531</v>
+        <v>0.1645787745547945</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02960459501981244</v>
+        <v>0.02751752510321467</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2441744814.678319</v>
+        <v>2029228017.172686</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1354279695838783</v>
+        <v>0.1316388452457262</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03603288869433574</v>
+        <v>0.04715742679856012</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2189705694.090448</v>
+        <v>1990627257.335985</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09123441053552074</v>
+        <v>0.117768419197607</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04049024989374869</v>
+        <v>0.04133050465443913</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3274520823.294818</v>
+        <v>3503869033.931175</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1316026397980882</v>
+        <v>0.1391173139651992</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02281796314008834</v>
+        <v>0.02182467400893006</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3745997251.797957</v>
+        <v>3505303880.026393</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1142288808610168</v>
+        <v>0.1044397790325821</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01977139549183068</v>
+        <v>0.02825778254266032</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2642695948.486065</v>
+        <v>3005458138.247787</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1056609020171742</v>
+        <v>0.1009402699260198</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03495543295749105</v>
+        <v>0.02198413876699338</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3111738423.552624</v>
+        <v>3168913123.909641</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1160642939414053</v>
+        <v>0.1697561744092529</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01898656908341096</v>
+        <v>0.02077646916526411</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2457172722.59147</v>
+        <v>2413928548.370417</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1903019146031177</v>
+        <v>0.1590479787982659</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04888108560886738</v>
+        <v>0.04994365482579853</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_277.xlsx
+++ b/output/fit_clients/fit_round_277.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2199899485.991301</v>
+        <v>2279229235.927057</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08310778186650378</v>
+        <v>0.09734340730409084</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04339664526637289</v>
+        <v>0.03725149609386835</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1614584105.374541</v>
+        <v>2046258701.944686</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1824460919813283</v>
+        <v>0.1411854092673724</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04637593838381779</v>
+        <v>0.03399890019245516</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4989242726.013649</v>
+        <v>3940912463.087648</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1401845922045536</v>
+        <v>0.1145798082669827</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03178543768439161</v>
+        <v>0.03741927385927944</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>148</v>
+      </c>
+      <c r="J4" t="n">
+        <v>276</v>
+      </c>
+      <c r="K4" t="n">
+        <v>89.8920527860684</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2572663440.161647</v>
+        <v>2997981991.72726</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0851182252733645</v>
+        <v>0.09368516252055978</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03691320308467002</v>
+        <v>0.04547911027985697</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>112</v>
+      </c>
+      <c r="J5" t="n">
+        <v>276</v>
+      </c>
+      <c r="K5" t="n">
+        <v>62.43000093748366</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2834946553.252284</v>
+        <v>2285186036.302401</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1227975979263607</v>
+        <v>0.09716739265527952</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05566590551148834</v>
+        <v>0.04109272459825333</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2726840511.750465</v>
+        <v>1922817892.791036</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0805807905805119</v>
+        <v>0.09152272216345711</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04172921069060226</v>
+        <v>0.03586558906160532</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3312962647.428835</v>
+        <v>3973208094.969333</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2170689500835107</v>
+        <v>0.1564961240598232</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02265244349079595</v>
+        <v>0.03284865045738785</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>277</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2233582408.694578</v>
+        <v>2212064808.508287</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1890649396927011</v>
+        <v>0.1556562631539549</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03306710070696981</v>
+        <v>0.02665922382137814</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3933729215.667498</v>
+        <v>3589806790.878205</v>
       </c>
       <c r="F10" t="n">
-        <v>0.161775948546636</v>
+        <v>0.1681771832348913</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03708434949232468</v>
+        <v>0.03655952484546153</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>249</v>
+      </c>
+      <c r="J10" t="n">
+        <v>276</v>
+      </c>
+      <c r="K10" t="n">
+        <v>78.17926146055999</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4211331124.501798</v>
+        <v>3656352899.117492</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859134130316815</v>
+        <v>0.1335946202744197</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04252863365624746</v>
+        <v>0.03496982977896576</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>111</v>
+      </c>
+      <c r="J11" t="n">
+        <v>277</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2971718361.260784</v>
+        <v>2387685644.526687</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1647852676620333</v>
+        <v>0.1789182092565091</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05083497837958189</v>
+        <v>0.03466186386069195</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5296480558.676425</v>
+        <v>3349831951.416031</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08489109799206328</v>
+        <v>0.07203923537902043</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02721061839305134</v>
+        <v>0.02597870814178107</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>141</v>
+      </c>
+      <c r="J13" t="n">
+        <v>276</v>
+      </c>
+      <c r="K13" t="n">
+        <v>67.62563695220663</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2448205283.10265</v>
+        <v>3761844961.898934</v>
       </c>
       <c r="F14" t="n">
-        <v>0.130630811397593</v>
+        <v>0.1253463712865193</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02907928751753003</v>
+        <v>0.04242052245025446</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>57</v>
+      </c>
+      <c r="J14" t="n">
+        <v>276</v>
+      </c>
+      <c r="K14" t="n">
+        <v>93.1066214586491</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1763049856.607802</v>
+        <v>1744963985.335659</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07281029455669794</v>
+        <v>0.06752468520443174</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03920227333634189</v>
+        <v>0.04677526860737311</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2526922412.584442</v>
+        <v>2199935777.571025</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0943655299231113</v>
+        <v>0.0934676095534895</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04237428317179524</v>
+        <v>0.03712629786746456</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3571336760.636095</v>
+        <v>4384418026.022018</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1067615869194236</v>
+        <v>0.1332491778203705</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04067072884050733</v>
+        <v>0.04464387403093781</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>132</v>
+      </c>
+      <c r="J17" t="n">
+        <v>277</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3335032602.379986</v>
+        <v>3115697879.029633</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1339085770674761</v>
+        <v>0.1822116076891545</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02093210145783174</v>
+        <v>0.03248006167836995</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>71</v>
+      </c>
+      <c r="J18" t="n">
+        <v>275</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1085538476.073735</v>
+        <v>883269533.3613498</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1622764513046358</v>
+        <v>0.1531260369254455</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0166471325018756</v>
+        <v>0.0201099923248653</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2712471324.765316</v>
+        <v>1881536326.753402</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1105019856949395</v>
+        <v>0.1033775736188718</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02464406161709595</v>
+        <v>0.02266663524021777</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2578698037.875627</v>
+        <v>1760907060.013886</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06669007610559936</v>
+        <v>0.08785722592042418</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0357905558794431</v>
+        <v>0.04055034355560655</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3142823301.529985</v>
+        <v>2941071210.847953</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1041896293981096</v>
+        <v>0.08791605053323467</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03811860228851613</v>
+        <v>0.04459400439307785</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>73</v>
+      </c>
+      <c r="J22" t="n">
+        <v>276</v>
+      </c>
+      <c r="K22" t="n">
+        <v>49.51237798534646</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1477611705.616367</v>
+        <v>1499947359.582278</v>
       </c>
       <c r="F23" t="n">
-        <v>0.148731501585902</v>
+        <v>0.1434219151897238</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05434666293396401</v>
+        <v>0.05220287482835173</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1283,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2529625124.850218</v>
+        <v>2942011260.069719</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1090971867883917</v>
+        <v>0.0945787373558762</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02504742653101907</v>
+        <v>0.03512716314011939</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>82</v>
+      </c>
+      <c r="J24" t="n">
+        <v>273</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1396169081.798088</v>
+        <v>995512371.1610274</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0916785425465356</v>
+        <v>0.1033961507668844</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02315641617680585</v>
+        <v>0.02270785185917408</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1360769237.986578</v>
+        <v>1137801997.716478</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1150632985286692</v>
+        <v>0.09135385240039935</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02950852818084535</v>
+        <v>0.02683858113746988</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3793383940.61768</v>
+        <v>4031541032.895663</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1170410511485677</v>
+        <v>0.1252057223946957</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01818659425324191</v>
+        <v>0.01860486772764306</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>113</v>
+      </c>
+      <c r="J27" t="n">
+        <v>277</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2458745518.495383</v>
+        <v>3859278618.394223</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1292121966026056</v>
+        <v>0.127961778615119</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0492487637724497</v>
+        <v>0.03338366820490084</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>56</v>
+      </c>
+      <c r="J28" t="n">
+        <v>277</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5157957579.599565</v>
+        <v>4294187040.232732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1507161997082575</v>
+        <v>0.1463057487280609</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0418381031369222</v>
+        <v>0.02883199667143221</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>265</v>
+      </c>
+      <c r="J29" t="n">
+        <v>276</v>
+      </c>
+      <c r="K29" t="n">
+        <v>93.13096068370263</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1513673096.732883</v>
+        <v>2293256189.716376</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1318412878119767</v>
+        <v>0.1046727625192155</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03253069341607127</v>
+        <v>0.03775873121139028</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1359300945.61253</v>
+        <v>930803595.1252738</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07651804157951377</v>
+        <v>0.07322077804398067</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0517537928706353</v>
+        <v>0.04949205854667462</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1900412013.972793</v>
+        <v>1775789015.013186</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08010476636095341</v>
+        <v>0.1002089093663501</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03311941063364915</v>
+        <v>0.02838606849851329</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2346196326.925837</v>
+        <v>2562780047.114583</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1958644842198273</v>
+        <v>0.1934043648282338</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04676545934381216</v>
+        <v>0.03911343466388011</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>985230160.6924146</v>
+        <v>1102194491.397544</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1135535351279158</v>
+        <v>0.1005417569955946</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02098393030434368</v>
+        <v>0.02063805386123349</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1056180002.832343</v>
+        <v>964640804.7428186</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1091987742607002</v>
+        <v>0.1118753317888286</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03450108409611524</v>
+        <v>0.04249750681029998</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2364536402.287262</v>
+        <v>3089065472.488761</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1475418496886547</v>
+        <v>0.1089489255050736</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02844360707687398</v>
+        <v>0.02006264194753908</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1850884962.171818</v>
+        <v>1932842792.264797</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09145608383301321</v>
+        <v>0.09882134298633841</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03088369155122695</v>
+        <v>0.02563178236213535</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1956623147.726893</v>
+        <v>1398863310.162847</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1034310009573441</v>
+        <v>0.1004684270185745</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02979991742636346</v>
+        <v>0.03071144659409076</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1590621722.946442</v>
+        <v>1981686015.446139</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1886173760071484</v>
+        <v>0.179473289132563</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02114957332216417</v>
+        <v>0.03215453528922066</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1433104805.776782</v>
+        <v>1778524225.794882</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1425842942811154</v>
+        <v>0.1570246536100847</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04719109289805194</v>
+        <v>0.03824827991345715</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1977846329.403185</v>
+        <v>2205107827.506297</v>
       </c>
       <c r="F41" t="n">
-        <v>0.147732350383056</v>
+        <v>0.1584269454075993</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03117938004496649</v>
+        <v>0.02915816071614576</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3823406556.736289</v>
+        <v>3826355110.444949</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0855899487717003</v>
+        <v>0.1075729305105923</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04554093095343032</v>
+        <v>0.04376808345230267</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>116</v>
+      </c>
+      <c r="J42" t="n">
+        <v>277</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2414836741.785233</v>
+        <v>2180877863.423479</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1571883490146303</v>
+        <v>0.1530721791657121</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01810237426953176</v>
+        <v>0.02412929362046203</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2252940156.981549</v>
+        <v>1788453656.721882</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09022178058811858</v>
+        <v>0.09305230779815449</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0291287895481521</v>
+        <v>0.02883789537575129</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1566259946.988925</v>
+        <v>2310961478.841187</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1178887915260939</v>
+        <v>0.161740884812447</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03888028930950964</v>
+        <v>0.05520690421661744</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5002775907.210521</v>
+        <v>4828473903.920459</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1461180915345048</v>
+        <v>0.1467288995939122</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03704227611699498</v>
+        <v>0.04575153251233508</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>162</v>
+      </c>
+      <c r="J46" t="n">
+        <v>277</v>
+      </c>
+      <c r="K46" t="n">
+        <v>94.63230188299698</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4324120250.265481</v>
+        <v>4718895809.462762</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1593227805422067</v>
+        <v>0.1769302480336118</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05442710037427876</v>
+        <v>0.05524407145265768</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>124</v>
+      </c>
+      <c r="J47" t="n">
+        <v>277</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3463797240.730597</v>
+        <v>4447006169.378204</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06807730888300796</v>
+        <v>0.09635556582342578</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03439313421579304</v>
+        <v>0.0266241498623656</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>137</v>
+      </c>
+      <c r="J48" t="n">
+        <v>277</v>
+      </c>
+      <c r="K48" t="n">
+        <v>98.80195319995448</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1602208222.660462</v>
+        <v>1636424441.731622</v>
       </c>
       <c r="F49" t="n">
-        <v>0.180333581759773</v>
+        <v>0.1933946741934623</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03956896678601725</v>
+        <v>0.04219459407581883</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3715176367.107996</v>
+        <v>3225247627.497272</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1427538952974008</v>
+        <v>0.1401003596571198</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04750119336824445</v>
+        <v>0.04175044986373932</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>89</v>
+      </c>
+      <c r="J50" t="n">
+        <v>273</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1516712251.467672</v>
+        <v>1047006293.957572</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1695210841497947</v>
+        <v>0.1955605191282371</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03517825596008749</v>
+        <v>0.03955951291883455</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5145904183.656276</v>
+        <v>3948984668.492877</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08452961022956351</v>
+        <v>0.1300656834205914</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04188036286414421</v>
+        <v>0.04106438791622342</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>174</v>
+      </c>
+      <c r="J52" t="n">
+        <v>277</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3471836546.902253</v>
+        <v>2676760004.897615</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1329173401241182</v>
+        <v>0.1570621012298656</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02816466052681459</v>
+        <v>0.02557309903299713</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>39</v>
+      </c>
+      <c r="J53" t="n">
+        <v>273</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4366655622.42637</v>
+        <v>4552864620.501815</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1145707044389083</v>
+        <v>0.1042854314314978</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03613802454687233</v>
+        <v>0.03895779447619561</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>146</v>
+      </c>
+      <c r="J54" t="n">
+        <v>277</v>
+      </c>
+      <c r="K54" t="n">
+        <v>93.58964648199746</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2376,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4347482755.456096</v>
+        <v>3267444024.311908</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1653823389621292</v>
+        <v>0.1784082295543566</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03258132406689267</v>
+        <v>0.02903770482173624</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>125</v>
+      </c>
+      <c r="J55" t="n">
+        <v>276</v>
+      </c>
+      <c r="K55" t="n">
+        <v>63.54186594798316</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1722754034.818159</v>
+        <v>1318446536.056222</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1609176330174389</v>
+        <v>0.1517127108563247</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04363498489146019</v>
+        <v>0.04535687543673249</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3875724507.366602</v>
+        <v>3234508208.703021</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1176512601014691</v>
+        <v>0.1612411914837955</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02653931159322689</v>
+        <v>0.01734312719752175</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>111</v>
+      </c>
+      <c r="J57" t="n">
+        <v>275</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1369537055.143045</v>
+        <v>1362826918.091389</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1536522938966858</v>
+        <v>0.2011804525185625</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02725727958956323</v>
+        <v>0.035605351241099</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4536008351.277634</v>
+        <v>4882121612.083345</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08238438032769906</v>
+        <v>0.08138092069786379</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04489414353052876</v>
+        <v>0.0470073067938784</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>134</v>
+      </c>
+      <c r="J59" t="n">
+        <v>276</v>
+      </c>
+      <c r="K59" t="n">
+        <v>86.24266693410205</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2549,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3021482895.59432</v>
+        <v>3400546421.530614</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1780362904802306</v>
+        <v>0.1887393516735152</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02254814523868042</v>
+        <v>0.03253622694969789</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>43</v>
+      </c>
+      <c r="J60" t="n">
+        <v>276</v>
+      </c>
+      <c r="K60" t="n">
+        <v>79.33472713342547</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2401446168.683288</v>
+        <v>2740051414.325904</v>
       </c>
       <c r="F61" t="n">
-        <v>0.125720510451148</v>
+        <v>0.1146475501669925</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02664493827284342</v>
+        <v>0.02957551371366764</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1832410195.378221</v>
+        <v>1669667817.991098</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1467710264866518</v>
+        <v>0.1848000267952187</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04748251486280433</v>
+        <v>0.04598980248633071</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5528822937.602718</v>
+        <v>5306462653.595564</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1010913480655332</v>
+        <v>0.100144898582204</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02957328707329189</v>
+        <v>0.04603322743367898</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>134</v>
+      </c>
+      <c r="J63" t="n">
+        <v>277</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5520941119.976525</v>
+        <v>5293898460.057309</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1849548611453982</v>
+        <v>0.1806965258947434</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02530286746555954</v>
+        <v>0.02841898095123921</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>136</v>
+      </c>
+      <c r="J64" t="n">
+        <v>276</v>
+      </c>
+      <c r="K64" t="n">
+        <v>91.18111745166865</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2734,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3797068284.913234</v>
+        <v>4232604350.366158</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1479772392717367</v>
+        <v>0.1651653614188864</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02314656369150857</v>
+        <v>0.03013402700034048</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>222</v>
+      </c>
+      <c r="J65" t="n">
+        <v>277</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4979127789.196584</v>
+        <v>4455890179.699165</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1099457314299893</v>
+        <v>0.1304673390680222</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03136251239531475</v>
+        <v>0.04141549412360854</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>137</v>
+      </c>
+      <c r="J66" t="n">
+        <v>276</v>
+      </c>
+      <c r="K66" t="n">
+        <v>84.22131004246532</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2750263841.62685</v>
+        <v>2869660092.937618</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07380693480174447</v>
+        <v>0.07246099703227443</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03908605865024893</v>
+        <v>0.03160685451494716</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5376019526.390667</v>
+        <v>5299599970.124757</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1197587381435697</v>
+        <v>0.1133364779058884</v>
       </c>
       <c r="G68" t="n">
-        <v>0.031820117034317</v>
+        <v>0.03346523174305697</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>143</v>
+      </c>
+      <c r="J68" t="n">
+        <v>277</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1524250583.288967</v>
+        <v>1643455763.118624</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1172027094415656</v>
+        <v>0.1333437241299392</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03956342819245819</v>
+        <v>0.05639747209683258</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3266270872.764679</v>
+        <v>2467972873.245789</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06487334795731077</v>
+        <v>0.09262311123738136</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04282929419384172</v>
+        <v>0.04477022976040908</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>40</v>
+      </c>
+      <c r="J70" t="n">
+        <v>270</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3675217902.040329</v>
+        <v>4676163704.202114</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1737589506079584</v>
+        <v>0.1647677125622055</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03046752309528343</v>
+        <v>0.02833850906220689</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>209</v>
+      </c>
+      <c r="J71" t="n">
+        <v>276</v>
+      </c>
+      <c r="K71" t="n">
+        <v>92.74375665764343</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1744007298.312246</v>
+        <v>2020226481.471511</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0677073640830001</v>
+        <v>0.08979460457830599</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0379195101928083</v>
+        <v>0.03369212702473188</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2389780862.033905</v>
+        <v>3105673822.476723</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08871360817071482</v>
+        <v>0.09022176118954441</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04083070077341446</v>
+        <v>0.03282150666823565</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3053,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2965087986.124836</v>
+        <v>2988320270.277275</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1424050551408835</v>
+        <v>0.1283094728658066</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0304719953691427</v>
+        <v>0.02756641676589262</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1964849155.225432</v>
+        <v>2219737026.434899</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1421223668715735</v>
+        <v>0.1549888169158162</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0370565876562508</v>
+        <v>0.03359880888438515</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3261063978.949977</v>
+        <v>3264724900.918574</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08614962276327193</v>
+        <v>0.1020641842862167</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03033942827221128</v>
+        <v>0.02144275463712973</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>130</v>
+      </c>
+      <c r="J76" t="n">
+        <v>276</v>
+      </c>
+      <c r="K76" t="n">
+        <v>58.28361467444076</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2191512528.156042</v>
+        <v>1606084397.113104</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1560355972234866</v>
+        <v>0.1683884803981837</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02760889103532887</v>
+        <v>0.02876161911859164</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3126044798.851005</v>
+        <v>4147061552.746944</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1007336801309323</v>
+        <v>0.1010319952606156</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04675570646734535</v>
+        <v>0.04620870186283912</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>138</v>
+      </c>
+      <c r="J78" t="n">
+        <v>277</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1545007597.234261</v>
+        <v>1516648056.041015</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1269716870290527</v>
+        <v>0.1709692185065666</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03436489848673164</v>
+        <v>0.03629014531238393</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3793165248.040316</v>
+        <v>5082901267.90101</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08989502684856182</v>
+        <v>0.08954337399270737</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02388192987744113</v>
+        <v>0.03494693600494831</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>135</v>
+      </c>
+      <c r="J80" t="n">
+        <v>277</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3300,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3572618492.125958</v>
+        <v>3627090220.328001</v>
       </c>
       <c r="F81" t="n">
-        <v>0.093121679571571</v>
+        <v>0.1045961650739641</v>
       </c>
       <c r="G81" t="n">
-        <v>0.031689538036601</v>
+        <v>0.02726747842191874</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>127</v>
+      </c>
+      <c r="J81" t="n">
+        <v>276</v>
+      </c>
+      <c r="K81" t="n">
+        <v>68.6348195527507</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3875272967.028067</v>
+        <v>4374242377.460053</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1982512266654786</v>
+        <v>0.1615721851162452</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02117968311509269</v>
+        <v>0.02674643954729818</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>206</v>
+      </c>
+      <c r="J82" t="n">
+        <v>277</v>
+      </c>
+      <c r="K82" t="n">
+        <v>93.47075886957083</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2246718538.264296</v>
+        <v>1524894727.536534</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1530791002567084</v>
+        <v>0.1529059719319132</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0450369035704239</v>
+        <v>0.04371132666047927</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2263811401.953587</v>
+        <v>1833808350.347589</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1177532921060607</v>
+        <v>0.09792198174884134</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0440934797266524</v>
+        <v>0.03686006253210799</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3542719423.873509</v>
+        <v>3496437137.69497</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1160122922873753</v>
+        <v>0.1804386407058576</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03588413595853237</v>
+        <v>0.05100181758243769</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>38</v>
+      </c>
+      <c r="J85" t="n">
+        <v>273</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1920735557.867024</v>
+        <v>2397819674.09376</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1046781493651163</v>
+        <v>0.1512301032910248</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01929972976490245</v>
+        <v>0.02324035375100369</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1062287750.314206</v>
+        <v>1019479592.180192</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1842004503407181</v>
+        <v>0.1464290191468918</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02719898915797075</v>
+        <v>0.03011818584098025</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3561331562.548227</v>
+        <v>3656556076.58204</v>
       </c>
       <c r="F88" t="n">
-        <v>0.14022832239351</v>
+        <v>0.1535781784471544</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03486150906517071</v>
+        <v>0.02471846604488483</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>277</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2203842679.16048</v>
+        <v>2496564673.460946</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1554791935345499</v>
+        <v>0.1433665900888603</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02615287789738782</v>
+        <v>0.03764462935511545</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1835721089.471642</v>
+        <v>1609416987.444546</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1059125027500575</v>
+        <v>0.1145572586941653</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03840152130376705</v>
+        <v>0.05318286039497683</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2053642195.612321</v>
+        <v>1584179236.119402</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1593639825595329</v>
+        <v>0.1953043754956208</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04841243722865522</v>
+        <v>0.04080490031142227</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2171974924.183102</v>
+        <v>2395545208.389765</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08453688190544018</v>
+        <v>0.09374048202455226</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04359091495489557</v>
+        <v>0.02964535773570749</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4163191055.771222</v>
+        <v>4247827973.387996</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1378812390121511</v>
+        <v>0.1076168198503514</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04403899958969536</v>
+        <v>0.05268119900105525</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>120</v>
+      </c>
+      <c r="J93" t="n">
+        <v>277</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1754225857.150638</v>
+        <v>2343670676.295678</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1645787745547945</v>
+        <v>0.1341467556559887</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02751752510321467</v>
+        <v>0.03998468790233038</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2029228017.172686</v>
+        <v>2163166291.283366</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1316388452457262</v>
+        <v>0.1303897329326861</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04715742679856012</v>
+        <v>0.04163423787497936</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1990627257.335985</v>
+        <v>2162695275.368501</v>
       </c>
       <c r="F96" t="n">
-        <v>0.117768419197607</v>
+        <v>0.1255563425890963</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04133050465443913</v>
+        <v>0.03883655430308076</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3503869033.931175</v>
+        <v>4587010926.670364</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1391173139651992</v>
+        <v>0.13232830840626</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02182467400893006</v>
+        <v>0.02855735092037325</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>137</v>
+      </c>
+      <c r="J97" t="n">
+        <v>277</v>
+      </c>
+      <c r="K97" t="n">
+        <v>95.06066299531697</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3505303880.026393</v>
+        <v>2651731842.584837</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1044397790325821</v>
+        <v>0.1202596743078196</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02825778254266032</v>
+        <v>0.02376702602261024</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>66</v>
+      </c>
+      <c r="J98" t="n">
+        <v>274</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3005458138.247787</v>
+        <v>2606169553.294331</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1009402699260198</v>
+        <v>0.1039978388302743</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02198413876699338</v>
+        <v>0.02685928750935382</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3168913123.909641</v>
+        <v>3116147215.74908</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1697561744092529</v>
+        <v>0.1560659037443226</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02077646916526411</v>
+        <v>0.0280688265626814</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>117</v>
+      </c>
+      <c r="J100" t="n">
+        <v>275</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2413928548.370417</v>
+        <v>3025578520.246034</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1590479787982659</v>
+        <v>0.134860498088931</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04994365482579853</v>
+        <v>0.05350255153594982</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>24</v>
+      </c>
+      <c r="J101" t="n">
+        <v>275</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
